--- a/pruebaEscritorioGenetico.xlsx
+++ b/pruebaEscritorioGenetico.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>R1</t>
   </si>
@@ -108,6 +109,135 @@
   </si>
   <si>
     <t>4 - 3</t>
+  </si>
+  <si>
+    <t>0-2-3</t>
+  </si>
+  <si>
+    <t>0-2-3-4</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+  </si>
+  <si>
+    <t>1-2-3</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <t>traf</t>
+  </si>
+  <si>
+    <t>saltos</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>List&lt;DemandaInfo&gt;</t>
+  </si>
+  <si>
+    <t>Objeto:</t>
+  </si>
+  <si>
+    <t>demanda</t>
+  </si>
+  <si>
+    <t>mayores</t>
+  </si>
+  <si>
+    <t>VARIABLES</t>
+  </si>
+  <si>
+    <t>bloqueado</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>demandasInfo</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>aplica</t>
+  </si>
+  <si>
+    <t>FLASE</t>
+  </si>
+  <si>
+    <t>demandaInfo</t>
+  </si>
+  <si>
+    <t>nodoPrimero</t>
+  </si>
+  <si>
+    <t>nodoSegundo</t>
+  </si>
+  <si>
+    <t>solucion</t>
+  </si>
+  <si>
+    <t>cantBloq</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>espectro</t>
+  </si>
+  <si>
+    <t>pareto</t>
+  </si>
+  <si>
+    <t>indiceRankeo</t>
+  </si>
+  <si>
+    <t>PerimetroCuboide</t>
+  </si>
+  <si>
+    <t>Solucion</t>
+  </si>
+  <si>
+    <t>ruteos</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>ranuras</t>
+  </si>
+  <si>
+    <t>indecieDeRanurasLibres</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt;</t>
   </si>
 </sst>
 </file>
@@ -116,9 +246,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +263,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +299,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB3B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -177,12 +335,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -199,10 +452,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -210,6 +557,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB3B3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -484,23 +836,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q18"/>
+  <dimension ref="A3:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -534,7 +887,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,14 +927,14 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -602,12 +955,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6">
-        <v>1</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -621,12 +974,12 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7">
-        <v>2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -640,12 +993,12 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8">
-        <v>3</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -659,14 +1012,14 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -680,12 +1033,12 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10">
-        <v>5</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -699,12 +1052,12 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11">
-        <v>6</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -718,12 +1071,12 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12">
-        <v>7</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -737,14 +1090,14 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="7"/>
@@ -758,12 +1111,12 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14">
-        <v>9</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -777,12 +1130,12 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15">
-        <v>10</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -796,12 +1149,12 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16">
-        <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -814,13 +1167,13 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17">
-        <v>12</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -833,13 +1186,13 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18">
-        <v>13</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -852,7 +1205,1456 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
+    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="23"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="23"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="23"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="23"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="23"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
+        <v>13</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2">
+        <v>7</v>
+      </c>
+      <c r="L36" s="2">
+        <v>8</v>
+      </c>
+      <c r="M36" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>2</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>4</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>5</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>6</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>7</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>9</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>10</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>12</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>13</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56">
+        <v>0</v>
+      </c>
+      <c r="D23" s="56">
+        <v>1</v>
+      </c>
+      <c r="E23" s="56">
+        <v>2</v>
+      </c>
+      <c r="F23" s="56">
+        <v>3</v>
+      </c>
+      <c r="G23" s="56">
+        <v>4</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="65">
+        <v>0</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="51">
+        <v>0</v>
+      </c>
+      <c r="B35" s="15">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>2</v>
+      </c>
+      <c r="B36" s="15">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>3</v>
+      </c>
+      <c r="B37" s="15">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="41">
+        <v>0</v>
+      </c>
+      <c r="C43" s="41">
+        <v>4</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="41">
+        <v>1</v>
+      </c>
+      <c r="F43" s="41">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="42">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="41">
+        <v>0</v>
+      </c>
+      <c r="C49" s="41">
+        <v>4</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="41">
+        <v>1</v>
+      </c>
+      <c r="F49" s="41">
+        <v>1200</v>
+      </c>
+      <c r="G49" s="42">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="18">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18">
+        <v>3</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1</v>
+      </c>
+      <c r="F55" s="18">
+        <v>900</v>
+      </c>
+      <c r="G55" s="28">
+        <v>900</v>
+      </c>
+      <c r="H55" s="48">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="18">
+        <v>0</v>
+      </c>
+      <c r="C56" s="18">
+        <v>4</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1200</v>
+      </c>
+      <c r="G56" s="28">
+        <v>1200</v>
+      </c>
+      <c r="H56" s="48">
+        <v>1</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="18">
+        <v>1</v>
+      </c>
+      <c r="C57" s="18">
+        <v>3</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
+        <v>500</v>
+      </c>
+      <c r="G57" s="28">
+        <v>500</v>
+      </c>
+      <c r="H57" s="48">
+        <v>2</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="41">
+        <v>1</v>
+      </c>
+      <c r="C58" s="41">
+        <v>4</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="41">
+        <v>1</v>
+      </c>
+      <c r="F58" s="41">
+        <v>800</v>
+      </c>
+      <c r="G58" s="42">
+        <v>800</v>
+      </c>
+      <c r="H58" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="30">
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>4</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="30">
+        <v>1</v>
+      </c>
+      <c r="F64" s="30">
+        <v>1200</v>
+      </c>
+      <c r="G64" s="31">
+        <v>1200</v>
+      </c>
+      <c r="H64" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="23">
+        <v>1</v>
+      </c>
+      <c r="C65" s="23">
+        <v>3</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="23">
+        <v>1</v>
+      </c>
+      <c r="F65" s="23">
+        <v>500</v>
+      </c>
+      <c r="G65" s="34">
+        <v>500</v>
+      </c>
+      <c r="H65" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="23">
+        <v>1</v>
+      </c>
+      <c r="C66" s="23">
+        <v>4</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="23">
+        <v>1</v>
+      </c>
+      <c r="F66" s="23">
+        <v>800</v>
+      </c>
+      <c r="G66" s="34">
+        <v>800</v>
+      </c>
+      <c r="H66" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="36">
+        <v>0</v>
+      </c>
+      <c r="C67" s="36">
+        <v>3</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="36">
+        <v>1</v>
+      </c>
+      <c r="F67" s="36">
+        <v>900</v>
+      </c>
+      <c r="G67" s="37">
+        <v>900</v>
+      </c>
+      <c r="H67" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A27:G27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D65" twoDigitTextYear="1"/>
+    <ignoredError sqref="A64:A67 A55:G56 A58:G58 A57:C57 E57:G57" numberStoredAsText="1"/>
+    <ignoredError sqref="D57" twoDigitTextYear="1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>